--- a/data/trans_bre/P6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>201,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-56,16%</t>
+          <t>141,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>200,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>290,83%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 5,55</t>
+          <t>-2,0; 13,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 3,04</t>
+          <t>-3,7; 18,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 6,86</t>
+          <t>-1,72; 20,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 10,77</t>
+          <t>0,59; 24,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-77,87; 323,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-91,22; 72,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-68,66; 168,2</t>
+          <t>-54,99; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,86; 289,91</t>
+          <t>-47,71; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>17,38%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 8,31</t>
+          <t>-2,85; 9,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 8,62</t>
+          <t>-4,59; 8,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 12,96</t>
+          <t>-3,79; 13,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 13,22</t>
+          <t>-7,48; 12,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 243,54</t>
+          <t>-30,65; 252,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 147,8</t>
+          <t>-37,34; 164,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 158,86</t>
+          <t>-19,65; 161,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 121,7</t>
+          <t>-31,84; 99,29</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>23,78%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 6,35</t>
+          <t>-5,21; 7,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 6,71</t>
+          <t>-5,3; 7,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 6,89</t>
+          <t>-6,95; 8,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 9,01</t>
+          <t>-4,78; 13,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 107,38</t>
+          <t>-50,81; 180,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 90,19</t>
+          <t>-50,89; 162,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 54,74</t>
+          <t>-39,7; 101,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 57,39</t>
+          <t>-24,18; 112,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 95,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 48,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 62,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 57,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,67</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>42,67%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,75%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 6,39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 6,41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 9,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 11,24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-19,71; 158,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-23,69; 112,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 107,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 95,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,94</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>11,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>201,18%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>141,81%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>200,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>290,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.88123774620666</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.108140739382533</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.721202270540481</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.90046635205664</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.011837555183503</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4292886182612698</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.821859965342903</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.678167729478859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,0; 13,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 18,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 20,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 24,16</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-54,99; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-47,71; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.998910188886846</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.58698647159037</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.806287194581124</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.723519011209135</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.8474044847091147</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7982098245303582</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.65252559132028</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.38196078687488</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.9025419810734</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>23.4764688813278</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>54,87%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>25,32%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>43,42%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 9,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 8,77</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 13,69</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; 12,46</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-30,65; 252,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-37,34; 164,35</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-19,65; 161,87</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-31,84; 99,29</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.427246814568413</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.284028821275893</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.62901993903909</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.807709047766375</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.5486866509779318</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1325943363842398</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4439416251778395</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2272441358038617</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,06</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15,65%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,91%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>23,78%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.850634458354131</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.177237204667722</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.633383700767117</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.3903719070671</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3064835541964557</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4354781246785772</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2188259729603892</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2857588389594051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 7,32</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 7,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 8,92</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 13,45</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-50,81; 180,83</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-50,89; 162,8</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-39,7; 101,91</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-24,18; 112,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.351344031567113</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.556340872914786</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.60534848968069</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.70826248156176</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.526513123097306</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.513257809807129</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.679102631574806</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.092279686313694</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +815,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.145542951021858</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.434045286842246</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.329512102633307</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.602505765745993</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1564936509766147</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2016390271604455</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1044385395945567</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2847249248123319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.211915587005682</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.54479357867994</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.684199492805605</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.982693089853221</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5081447593528013</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4632798432800792</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.395758913543468</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.205104324249535</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.320341739686766</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.49102575245128</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.882420266681638</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.86101224074971</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.808305796021405</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.861863504261828</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.01801356423726</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.215154737492173</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>42,67%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>28,71%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>35,75%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>30,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 6,39</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 6,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 9,95</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 11,24</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-19,71; 158,34</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-23,69; 112,01</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 107,56</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 95,18</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.586786837312355</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.547169335611907</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.865195984046037</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.862572972361534</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4267178046615244</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1852199557127679</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3235362045223796</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3232454407899769</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.530334756527024</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.542183821563663</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.637919387471957</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.474940762132966</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1971097924102273</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3335482803707677</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.116511594801922</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.08506803387398232</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.388495655541219</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.597858450584226</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.473506776276972</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.25026391268388</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.583413400961534</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9027786540989948</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.015727356831575</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9505624930741712</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
